--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_6_5_2.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_6_5_2.xlsx
@@ -466,7 +466,7 @@
         <v>3.274622503218271</v>
       </c>
       <c r="D2" t="n">
-        <v>3.274622201919556</v>
+        <v>3.274621963500977</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>2.618991867025821</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61899209022522</v>
+        <v>2.618992328643799</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>2.473616686300074</v>
       </c>
       <c r="D6" t="n">
-        <v>2.4736168384552</v>
+        <v>2.473616600036621</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>3.303542096322838</v>
       </c>
       <c r="D7" t="n">
-        <v>3.365219354629517</v>
+        <v>3.365219593048096</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>1.686432489438351</v>
       </c>
       <c r="D9" t="n">
-        <v>1.686433076858521</v>
+        <v>1.686432957649231</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>2.647911460130388</v>
       </c>
       <c r="D10" t="n">
-        <v>2.647911787033081</v>
+        <v>2.647911548614502</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>2.502536279404641</v>
       </c>
       <c r="D11" t="n">
-        <v>2.518701553344727</v>
+        <v>2.518702030181885</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>2.000635365784534</v>
       </c>
       <c r="D14" t="n">
-        <v>1.981796503067017</v>
+        <v>1.981796741485596</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>2.96211433647657</v>
       </c>
       <c r="D15" t="n">
-        <v>2.962114810943604</v>
+        <v>2.962115049362183</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>2.816739155750824</v>
       </c>
       <c r="D16" t="n">
-        <v>2.828596591949463</v>
+        <v>2.828596830368042</v>
       </c>
     </row>
     <row r="17">
@@ -704,7 +704,7 @@
         <v>0.705123113609381</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7211786508560181</v>
+        <v>0.7211788892745972</v>
       </c>
     </row>
     <row r="20">
@@ -746,7 +746,7 @@
         <v>2.560174814827988</v>
       </c>
       <c r="D22" t="n">
-        <v>2.560174226760864</v>
+        <v>2.560174465179443</v>
       </c>
     </row>
     <row r="23">
@@ -760,7 +760,7 @@
         <v>0.6951161619240627</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7075072526931763</v>
+        <v>0.7075074911117554</v>
       </c>
     </row>
     <row r="24">
@@ -802,7 +802,7 @@
         <v>1.759168997909792</v>
       </c>
       <c r="D26" t="n">
-        <v>1.759169220924377</v>
+        <v>1.759169340133667</v>
       </c>
     </row>
   </sheetData>
